--- a/Monthly Tesla Vehicle Sales.xlsx
+++ b/Monthly Tesla Vehicle Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caroh\OneDrive - Universiteit Hasselt\2020-2021\Business intelligence\Project\BUSIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F317AC2-B5D1-4CB3-B714-9AD47F75344D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF6563-14FF-401C-8A99-EB63DC240BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7E820A4-D284-4ACE-A8E8-3BC0C4C0F32F}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,40 +522,40 @@
         <v>2017</v>
       </c>
       <c r="B3">
-        <v>656</v>
+        <v>1433</v>
       </c>
       <c r="C3">
-        <v>939</v>
+        <v>1115</v>
       </c>
       <c r="D3">
-        <v>4629</v>
+        <v>3885</v>
       </c>
       <c r="E3">
-        <v>1335</v>
+        <v>920</v>
       </c>
       <c r="F3">
-        <v>1842</v>
+        <v>1659</v>
       </c>
       <c r="G3">
-        <v>4025</v>
+        <v>2962</v>
       </c>
       <c r="H3">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="I3">
-        <v>1482</v>
+        <v>1329</v>
       </c>
       <c r="J3">
-        <v>5472</v>
+        <v>4682</v>
       </c>
       <c r="K3">
-        <v>917</v>
+        <v>1402</v>
       </c>
       <c r="L3">
-        <v>2039</v>
+        <v>2695</v>
       </c>
       <c r="M3">
-        <v>5199</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -563,40 +563,40 @@
         <v>2018</v>
       </c>
       <c r="B4">
-        <v>804</v>
+        <v>656</v>
       </c>
       <c r="C4">
-        <v>4255</v>
+        <v>939</v>
       </c>
       <c r="D4">
-        <v>16313</v>
+        <v>4629</v>
       </c>
       <c r="E4">
-        <v>4451</v>
+        <v>1335</v>
       </c>
       <c r="F4">
-        <v>5295</v>
+        <v>1842</v>
       </c>
       <c r="G4">
-        <v>14105</v>
+        <v>4025</v>
       </c>
       <c r="H4">
-        <v>4612</v>
+        <v>1079</v>
       </c>
       <c r="I4">
-        <v>6594</v>
+        <v>1482</v>
       </c>
       <c r="J4">
-        <v>1956</v>
+        <v>5472</v>
       </c>
       <c r="K4">
-        <v>2512</v>
+        <v>917</v>
       </c>
       <c r="L4">
-        <v>8978</v>
+        <v>2039</v>
       </c>
       <c r="M4">
-        <v>24249</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -604,40 +604,40 @@
         <v>2019</v>
       </c>
       <c r="B5">
-        <v>1433</v>
+        <v>804</v>
       </c>
       <c r="C5">
-        <v>1115</v>
+        <v>4255</v>
       </c>
       <c r="D5">
-        <v>3885</v>
+        <v>16313</v>
       </c>
       <c r="E5">
-        <v>920</v>
+        <v>4451</v>
       </c>
       <c r="F5">
-        <v>1659</v>
+        <v>5295</v>
       </c>
       <c r="G5">
-        <v>2962</v>
+        <v>14105</v>
       </c>
       <c r="H5">
-        <v>1084</v>
+        <v>4612</v>
       </c>
       <c r="I5">
-        <v>1329</v>
+        <v>6594</v>
       </c>
       <c r="J5">
-        <v>4682</v>
+        <v>1956</v>
       </c>
       <c r="K5">
-        <v>1402</v>
+        <v>2512</v>
       </c>
       <c r="L5">
-        <v>2695</v>
+        <v>8978</v>
       </c>
       <c r="M5">
-        <v>482</v>
+        <v>24249</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/Monthly Tesla Vehicle Sales.xlsx
+++ b/Monthly Tesla Vehicle Sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caroh\OneDrive - Universiteit Hasselt\2020-2021\Business intelligence\Project\BUSIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF6563-14FF-401C-8A99-EB63DC240BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FD586-299E-4777-A252-5D6C36775206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A7E820A4-D284-4ACE-A8E8-3BC0C4C0F32F}"/>
   </bookViews>
